--- a/Examples/AcPowerSystem/IEEE_14BusFullOrder/IEEE_14BusFullOrder.xlsx
+++ b/Examples/AcPowerSystem/IEEE_14BusFullOrder/IEEE_14BusFullOrder.xlsx
@@ -198,7 +198,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,20 +216,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -696,19 +682,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -717,143 +712,134 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1808,7 +1794,7 @@
   <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1850,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="6">
         <v>1.5</v>
@@ -1921,7 +1907,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C4" s="6">
         <v>1.5</v>
@@ -1992,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C5" s="6">
         <v>1.5</v>
@@ -2063,7 +2049,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6">
         <v>1.5</v>
@@ -2134,7 +2120,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C7" s="6">
         <v>1.5</v>

--- a/Examples/AcPowerSystem/IEEE_14BusFullOrder/IEEE_14BusFullOrder.xlsx
+++ b/Examples/AcPowerSystem/IEEE_14BusFullOrder/IEEE_14BusFullOrder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11655" activeTab="1"/>
+    <workbookView windowWidth="16200" windowHeight="24855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -1793,8 +1793,8 @@
   <sheetPr/>
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1839,19 +1839,19 @@
         <v>30</v>
       </c>
       <c r="C3" s="6">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="D3" s="6">
         <v>0.5</v>
       </c>
       <c r="E3" s="6">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
       </c>
       <c r="G3" s="6">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="H3" s="6">
         <v>0.45</v>
@@ -1863,7 +1863,7 @@
         <v>0.02</v>
       </c>
       <c r="K3" s="6">
-        <v>9</v>
+        <v>9.32</v>
       </c>
       <c r="L3" s="6">
         <v>0.05</v>
@@ -1934,7 +1934,7 @@
         <v>0.02</v>
       </c>
       <c r="K4" s="6">
-        <v>9</v>
+        <v>8.57</v>
       </c>
       <c r="L4" s="6">
         <v>0.05</v>
@@ -1981,19 +1981,19 @@
         <v>30</v>
       </c>
       <c r="C5" s="6">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="D5" s="6">
         <v>0.5</v>
       </c>
       <c r="E5" s="6">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
       </c>
       <c r="G5" s="6">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="H5" s="6">
         <v>0.45</v>
@@ -2005,7 +2005,7 @@
         <v>0.02</v>
       </c>
       <c r="K5" s="6">
-        <v>9</v>
+        <v>8.88</v>
       </c>
       <c r="L5" s="6">
         <v>0.05</v>
@@ -2076,7 +2076,7 @@
         <v>0.02</v>
       </c>
       <c r="K6" s="6">
-        <v>9</v>
+        <v>8.32</v>
       </c>
       <c r="L6" s="6">
         <v>0.05</v>
@@ -2147,7 +2147,7 @@
         <v>0.02</v>
       </c>
       <c r="K7" s="6">
-        <v>9</v>
+        <v>9.21</v>
       </c>
       <c r="L7" s="6">
         <v>0.05</v>
